--- a/assets/results/scatter_results.xlsx
+++ b/assets/results/scatter_results.xlsx
@@ -433,16 +433,16 @@
         <v>2579</v>
       </c>
       <c r="C2">
-        <v>2755</v>
+        <v>2906</v>
       </c>
       <c r="D2">
-        <v>3294</v>
+        <v>3305</v>
       </c>
       <c r="E2" t="str">
-        <v>236.8s</v>
+        <v>250.1s</v>
       </c>
       <c r="F2" t="str">
-        <v>6.82%</v>
+        <v>12.66%</v>
       </c>
       <c r="G2" t="str">
         <v>[100,5,30]</v>
@@ -456,16 +456,16 @@
         <v>118282</v>
       </c>
       <c r="C3">
-        <v>126017</v>
+        <v>123863</v>
       </c>
       <c r="D3">
-        <v>139172</v>
+        <v>144283</v>
       </c>
       <c r="E3" t="str">
-        <v>20.2s</v>
+        <v>22.3s</v>
       </c>
       <c r="F3" t="str">
-        <v>6.54%</v>
+        <v>4.72%</v>
       </c>
       <c r="G3" t="str">
         <v>[100,5,30]</v>
@@ -479,16 +479,16 @@
         <v>6110</v>
       </c>
       <c r="C4">
-        <v>6608</v>
+        <v>6848</v>
       </c>
       <c r="D4">
-        <v>7745</v>
+        <v>7683</v>
       </c>
       <c r="E4" t="str">
-        <v>29.8s</v>
+        <v>32.5s</v>
       </c>
       <c r="F4" t="str">
-        <v>8.15%</v>
+        <v>12.09%</v>
       </c>
       <c r="G4" t="str">
         <v>[100,5,30]</v>
@@ -502,16 +502,16 @@
         <v>6528</v>
       </c>
       <c r="C5">
-        <v>6936</v>
+        <v>6929</v>
       </c>
       <c r="D5">
-        <v>8116</v>
+        <v>7327</v>
       </c>
       <c r="E5" t="str">
-        <v>45.9s</v>
+        <v>48.0s</v>
       </c>
       <c r="F5" t="str">
-        <v>6.25%</v>
+        <v>6.15%</v>
       </c>
       <c r="G5" t="str">
         <v>[100,5,30]</v>
@@ -525,16 +525,16 @@
         <v>15780</v>
       </c>
       <c r="C6">
-        <v>16723</v>
+        <v>16267</v>
       </c>
       <c r="D6">
-        <v>19397</v>
+        <v>20735</v>
       </c>
       <c r="E6" t="str">
-        <v>96.4s</v>
+        <v>109.1s</v>
       </c>
       <c r="F6" t="str">
-        <v>5.98%</v>
+        <v>3.09%</v>
       </c>
       <c r="G6" t="str">
         <v>[100,5,30]</v>
@@ -548,16 +548,16 @@
         <v>629</v>
       </c>
       <c r="C7">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="D7">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="E7" t="str">
-        <v>11.7s</v>
+        <v>11.0s</v>
       </c>
       <c r="F7" t="str">
-        <v>8.61%</v>
+        <v>9.91%</v>
       </c>
       <c r="G7" t="str">
         <v>[100,5,30]</v>
@@ -571,16 +571,16 @@
         <v>2378</v>
       </c>
       <c r="C8">
-        <v>2628</v>
+        <v>2568</v>
       </c>
       <c r="D8">
-        <v>3121</v>
+        <v>3046</v>
       </c>
       <c r="E8" t="str">
-        <v>211.5s</v>
+        <v>215.4s</v>
       </c>
       <c r="F8" t="str">
-        <v>10.50%</v>
+        <v>8.01%</v>
       </c>
       <c r="G8" t="str">
         <v>[100,5,30]</v>
@@ -594,16 +594,16 @@
         <v>21282</v>
       </c>
       <c r="C9">
-        <v>22256</v>
+        <v>22622</v>
       </c>
       <c r="D9">
-        <v>28507</v>
+        <v>26311</v>
       </c>
       <c r="E9" t="str">
-        <v>11.3s</v>
+        <v>11.0s</v>
       </c>
       <c r="F9" t="str">
-        <v>4.58%</v>
+        <v>6.30%</v>
       </c>
       <c r="G9" t="str">
         <v>[100,5,30]</v>
@@ -617,16 +617,16 @@
         <v>26524</v>
       </c>
       <c r="C10">
-        <v>28127</v>
+        <v>29345</v>
       </c>
       <c r="D10">
-        <v>32826</v>
+        <v>33340</v>
       </c>
       <c r="E10" t="str">
-        <v>38.5s</v>
+        <v>37.9s</v>
       </c>
       <c r="F10" t="str">
-        <v>6.04%</v>
+        <v>10.64%</v>
       </c>
       <c r="G10" t="str">
         <v>[100,5,30]</v>
@@ -640,16 +640,16 @@
         <v>29368</v>
       </c>
       <c r="C11">
-        <v>31875</v>
+        <v>30160</v>
       </c>
       <c r="D11">
-        <v>39365</v>
+        <v>37517</v>
       </c>
       <c r="E11" t="str">
-        <v>97.0s</v>
+        <v>98.8s</v>
       </c>
       <c r="F11" t="str">
-        <v>8.54%</v>
+        <v>2.70%</v>
       </c>
       <c r="G11" t="str">
         <v>[100,5,30]</v>
@@ -663,16 +663,16 @@
         <v>22141</v>
       </c>
       <c r="C12">
-        <v>23634</v>
+        <v>22929</v>
       </c>
       <c r="D12">
-        <v>26822</v>
+        <v>26439</v>
       </c>
       <c r="E12" t="str">
-        <v>11.3s</v>
+        <v>12.1s</v>
       </c>
       <c r="F12" t="str">
-        <v>6.75%</v>
+        <v>3.56%</v>
       </c>
       <c r="G12" t="str">
         <v>[100,5,30]</v>
@@ -686,16 +686,16 @@
         <v>26130</v>
       </c>
       <c r="C13">
-        <v>28346</v>
+        <v>27830</v>
       </c>
       <c r="D13">
-        <v>33672</v>
+        <v>36486</v>
       </c>
       <c r="E13" t="str">
-        <v>37.9s</v>
+        <v>40.7s</v>
       </c>
       <c r="F13" t="str">
-        <v>8.48%</v>
+        <v>6.51%</v>
       </c>
       <c r="G13" t="str">
         <v>[100,5,30]</v>
@@ -709,16 +709,16 @@
         <v>29437</v>
       </c>
       <c r="C14">
-        <v>32452</v>
+        <v>31258</v>
       </c>
       <c r="D14">
-        <v>37424</v>
+        <v>35522</v>
       </c>
       <c r="E14" t="str">
-        <v>101.2s</v>
+        <v>95.4s</v>
       </c>
       <c r="F14" t="str">
-        <v>10.24%</v>
+        <v>6.19%</v>
       </c>
       <c r="G14" t="str">
         <v>[100,5,30]</v>
@@ -732,16 +732,16 @@
         <v>20749</v>
       </c>
       <c r="C15">
-        <v>22027</v>
+        <v>22961</v>
       </c>
       <c r="D15">
-        <v>26252</v>
+        <v>25635</v>
       </c>
       <c r="E15" t="str">
-        <v>10.8s</v>
+        <v>11.1s</v>
       </c>
       <c r="F15" t="str">
-        <v>6.16%</v>
+        <v>10.66%</v>
       </c>
       <c r="G15" t="str">
         <v>[100,5,30]</v>
@@ -755,16 +755,16 @@
         <v>21294</v>
       </c>
       <c r="C16">
-        <v>22964</v>
+        <v>23146</v>
       </c>
       <c r="D16">
-        <v>24881</v>
+        <v>26460</v>
       </c>
       <c r="E16" t="str">
-        <v>10.8s</v>
+        <v>11.8s</v>
       </c>
       <c r="F16" t="str">
-        <v>7.84%</v>
+        <v>8.70%</v>
       </c>
       <c r="G16" t="str">
         <v>[100,5,30]</v>
@@ -778,16 +778,16 @@
         <v>22068</v>
       </c>
       <c r="C17">
-        <v>23307</v>
+        <v>23619</v>
       </c>
       <c r="D17">
-        <v>27936</v>
+        <v>26782</v>
       </c>
       <c r="E17" t="str">
-        <v>11.0s</v>
+        <v>11.2s</v>
       </c>
       <c r="F17" t="str">
-        <v>5.62%</v>
+        <v>7.03%</v>
       </c>
       <c r="G17" t="str">
         <v>[100,5,30]</v>
@@ -801,16 +801,16 @@
         <v>14379</v>
       </c>
       <c r="C18">
-        <v>15798</v>
+        <v>15215</v>
       </c>
       <c r="D18">
-        <v>19407</v>
+        <v>19958</v>
       </c>
       <c r="E18" t="str">
-        <v>12.4s</v>
+        <v>13.3s</v>
       </c>
       <c r="F18" t="str">
-        <v>9.87%</v>
+        <v>5.81%</v>
       </c>
       <c r="G18" t="str">
         <v>[100,5,30]</v>
@@ -824,16 +824,16 @@
         <v>44303</v>
       </c>
       <c r="C19">
-        <v>44617</v>
+        <v>45134</v>
       </c>
       <c r="D19">
-        <v>49747</v>
+        <v>47621</v>
       </c>
       <c r="E19" t="str">
-        <v>13.4s</v>
+        <v>12.6s</v>
       </c>
       <c r="F19" t="str">
-        <v>0.71%</v>
+        <v>1.88%</v>
       </c>
       <c r="G19" t="str">
         <v>[100,5,30]</v>
@@ -847,16 +847,16 @@
         <v>59030</v>
       </c>
       <c r="C20">
-        <v>60860</v>
+        <v>59680</v>
       </c>
       <c r="D20">
-        <v>73008</v>
+        <v>67976</v>
       </c>
       <c r="E20" t="str">
-        <v>20.8s</v>
+        <v>20.3s</v>
       </c>
       <c r="F20" t="str">
-        <v>3.10%</v>
+        <v>1.10%</v>
       </c>
       <c r="G20" t="str">
         <v>[100,5,30]</v>
@@ -870,16 +870,16 @@
         <v>96772</v>
       </c>
       <c r="C21">
-        <v>108331</v>
+        <v>106063</v>
       </c>
       <c r="D21">
-        <v>119306</v>
+        <v>128229</v>
       </c>
       <c r="E21" t="str">
-        <v>25.8s</v>
+        <v>27.4s</v>
       </c>
       <c r="F21" t="str">
-        <v>11.94%</v>
+        <v>9.60%</v>
       </c>
       <c r="G21" t="str">
         <v>[100,5,30]</v>
@@ -893,16 +893,16 @@
         <v>58537</v>
       </c>
       <c r="C22">
-        <v>59977</v>
+        <v>60010</v>
       </c>
       <c r="D22">
-        <v>65884</v>
+        <v>64343</v>
       </c>
       <c r="E22" t="str">
-        <v>34.4s</v>
+        <v>32.6s</v>
       </c>
       <c r="F22" t="str">
-        <v>2.46%</v>
+        <v>2.52%</v>
       </c>
       <c r="G22" t="str">
         <v>[100,5,30]</v>
@@ -916,16 +916,16 @@
         <v>73682</v>
       </c>
       <c r="C23">
-        <v>79944</v>
+        <v>77231</v>
       </c>
       <c r="D23">
-        <v>86387</v>
+        <v>87366</v>
       </c>
       <c r="E23" t="str">
-        <v>40.1s</v>
+        <v>37.5s</v>
       </c>
       <c r="F23" t="str">
-        <v>8.50%</v>
+        <v>4.82%</v>
       </c>
       <c r="G23" t="str">
         <v>[100,5,30]</v>
@@ -939,16 +939,16 @@
         <v>80369</v>
       </c>
       <c r="C24">
-        <v>85186</v>
+        <v>86244</v>
       </c>
       <c r="D24">
-        <v>98725</v>
+        <v>98585</v>
       </c>
       <c r="E24" t="str">
-        <v>136.7s</v>
+        <v>134.1s</v>
       </c>
       <c r="F24" t="str">
-        <v>5.99%</v>
+        <v>7.31%</v>
       </c>
       <c r="G24" t="str">
         <v>[100,5,30]</v>
@@ -962,16 +962,16 @@
         <v>49135</v>
       </c>
       <c r="C25">
-        <v>54827</v>
+        <v>56212</v>
       </c>
       <c r="D25">
-        <v>57213</v>
+        <v>58783</v>
       </c>
       <c r="E25" t="str">
-        <v>217.2s</v>
+        <v>220.3s</v>
       </c>
       <c r="F25" t="str">
-        <v>11.58%</v>
+        <v>14.40%</v>
       </c>
       <c r="G25" t="str">
         <v>[100,5,30]</v>
@@ -991,7 +991,7 @@
         <v>68084</v>
       </c>
       <c r="E26" t="str">
-        <v>313.5s</v>
+        <v>317.7s</v>
       </c>
       <c r="F26" t="str">
         <v>8.74%</v>
@@ -1008,16 +1008,16 @@
         <v>2323</v>
       </c>
       <c r="C27">
-        <v>2472</v>
+        <v>2481</v>
       </c>
       <c r="D27">
-        <v>2752</v>
+        <v>2643</v>
       </c>
       <c r="E27" t="str">
-        <v>82.9s</v>
+        <v>82.7s</v>
       </c>
       <c r="F27" t="str">
-        <v>6.42%</v>
+        <v>6.82%</v>
       </c>
       <c r="G27" t="str">
         <v>[100,5,30]</v>
@@ -1031,16 +1031,16 @@
         <v>7910</v>
       </c>
       <c r="C28">
-        <v>8620</v>
+        <v>8748</v>
       </c>
       <c r="D28">
-        <v>10295</v>
+        <v>9907</v>
       </c>
       <c r="E28" t="str">
-        <v>12.6s</v>
+        <v>12.4s</v>
       </c>
       <c r="F28" t="str">
-        <v>8.98%</v>
+        <v>10.60%</v>
       </c>
       <c r="G28" t="str">
         <v>[100,5,30]</v>
@@ -1054,16 +1054,16 @@
         <v>126643</v>
       </c>
       <c r="C29">
-        <v>136330</v>
+        <v>138041</v>
       </c>
       <c r="D29">
-        <v>146962</v>
+        <v>142630</v>
       </c>
       <c r="E29" t="str">
-        <v>128.8s</v>
+        <v>128.1s</v>
       </c>
       <c r="F29" t="str">
-        <v>7.65%</v>
+        <v>9.00%</v>
       </c>
       <c r="G29" t="str">
         <v>[100,5,30]</v>
@@ -1077,16 +1077,16 @@
         <v>3916</v>
       </c>
       <c r="C30">
-        <v>4110</v>
+        <v>4146</v>
       </c>
       <c r="D30">
-        <v>4678</v>
+        <v>4804</v>
       </c>
       <c r="E30" t="str">
-        <v>147.1s</v>
+        <v>140.4s</v>
       </c>
       <c r="F30" t="str">
-        <v>4.96%</v>
+        <v>5.88%</v>
       </c>
       <c r="G30" t="str">
         <v>[100,5,30]</v>
@@ -1100,16 +1100,16 @@
         <v>42080</v>
       </c>
       <c r="C31">
-        <v>48452</v>
+        <v>47037</v>
       </c>
       <c r="D31">
-        <v>52567</v>
+        <v>54717</v>
       </c>
       <c r="E31" t="str">
-        <v>45.4s</v>
+        <v>45.0s</v>
       </c>
       <c r="F31" t="str">
-        <v>15.14%</v>
+        <v>11.78%</v>
       </c>
       <c r="G31" t="str">
         <v>[100,5,30]</v>
